--- a/health_parent/health_web/src/main/webapp/template/ordersetting_template.xlsx
+++ b/health_parent/health_web/src/main/webapp/template/ordersetting_template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D481324-15C4-431B-B1A4-652723D928A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="预约设置模板" sheetId="1" r:id="rId1"/>
@@ -27,8 +28,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,7 +129,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -170,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,9 +203,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,6 +255,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -411,20 +448,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -432,7 +469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44129</v>
       </c>
@@ -440,7 +477,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44130</v>
       </c>
@@ -448,7 +485,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44131</v>
       </c>
@@ -456,7 +493,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>44132</v>
       </c>
@@ -464,7 +501,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44133</v>
       </c>
@@ -472,7 +509,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44134</v>
       </c>
@@ -480,7 +517,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44135</v>
       </c>
@@ -488,7 +525,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44136</v>
       </c>
@@ -496,7 +533,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44137</v>
       </c>
@@ -504,7 +541,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44138</v>
       </c>
@@ -512,7 +549,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44139</v>
       </c>
@@ -520,7 +557,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44140</v>
       </c>
@@ -528,7 +565,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44141</v>
       </c>
@@ -536,7 +573,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44142</v>
       </c>
@@ -544,7 +581,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44143</v>
       </c>
@@ -552,7 +589,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44144</v>
       </c>
@@ -560,7 +597,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>44145</v>
       </c>
@@ -568,7 +605,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44146</v>
       </c>
@@ -576,7 +613,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44147</v>
       </c>
@@ -584,11 +621,971 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>44148</v>
       </c>
       <c r="B21" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44149</v>
+      </c>
+      <c r="B22" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>44150</v>
+      </c>
+      <c r="B23" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>44151</v>
+      </c>
+      <c r="B24" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>44152</v>
+      </c>
+      <c r="B25" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44153</v>
+      </c>
+      <c r="B26" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>44154</v>
+      </c>
+      <c r="B27" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44155</v>
+      </c>
+      <c r="B28" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>44156</v>
+      </c>
+      <c r="B29" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>44157</v>
+      </c>
+      <c r="B30" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>44158</v>
+      </c>
+      <c r="B31" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>44159</v>
+      </c>
+      <c r="B32" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>44160</v>
+      </c>
+      <c r="B33" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>44161</v>
+      </c>
+      <c r="B34" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>44162</v>
+      </c>
+      <c r="B35" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>44163</v>
+      </c>
+      <c r="B36" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>44164</v>
+      </c>
+      <c r="B37" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>44165</v>
+      </c>
+      <c r="B38" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>44166</v>
+      </c>
+      <c r="B39" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>44167</v>
+      </c>
+      <c r="B40" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>44168</v>
+      </c>
+      <c r="B41" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>44169</v>
+      </c>
+      <c r="B42" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>44170</v>
+      </c>
+      <c r="B43" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>44171</v>
+      </c>
+      <c r="B44" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>44172</v>
+      </c>
+      <c r="B45" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>44173</v>
+      </c>
+      <c r="B46" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>44174</v>
+      </c>
+      <c r="B47" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B48" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44176</v>
+      </c>
+      <c r="B49" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>44177</v>
+      </c>
+      <c r="B50" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>44178</v>
+      </c>
+      <c r="B51" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B52" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>44180</v>
+      </c>
+      <c r="B53" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>44181</v>
+      </c>
+      <c r="B54" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>44182</v>
+      </c>
+      <c r="B55" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>44183</v>
+      </c>
+      <c r="B56" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>44184</v>
+      </c>
+      <c r="B57" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>44185</v>
+      </c>
+      <c r="B58" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>44186</v>
+      </c>
+      <c r="B59" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>44187</v>
+      </c>
+      <c r="B60" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>44188</v>
+      </c>
+      <c r="B61" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>44189</v>
+      </c>
+      <c r="B62" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>44190</v>
+      </c>
+      <c r="B63" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>44191</v>
+      </c>
+      <c r="B64" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>44192</v>
+      </c>
+      <c r="B65" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>44193</v>
+      </c>
+      <c r="B66" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>44194</v>
+      </c>
+      <c r="B67" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>44195</v>
+      </c>
+      <c r="B68" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>44196</v>
+      </c>
+      <c r="B69" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>44197</v>
+      </c>
+      <c r="B70" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>44198</v>
+      </c>
+      <c r="B71" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>44199</v>
+      </c>
+      <c r="B72" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>44200</v>
+      </c>
+      <c r="B73" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>44201</v>
+      </c>
+      <c r="B74" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>44202</v>
+      </c>
+      <c r="B75" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>44203</v>
+      </c>
+      <c r="B76" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>44204</v>
+      </c>
+      <c r="B77" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>44205</v>
+      </c>
+      <c r="B78" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>44206</v>
+      </c>
+      <c r="B79" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>44207</v>
+      </c>
+      <c r="B80" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>44208</v>
+      </c>
+      <c r="B81" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>44209</v>
+      </c>
+      <c r="B82" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>44210</v>
+      </c>
+      <c r="B83" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>44211</v>
+      </c>
+      <c r="B84" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>44212</v>
+      </c>
+      <c r="B85" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>44213</v>
+      </c>
+      <c r="B86" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>44214</v>
+      </c>
+      <c r="B87" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>44215</v>
+      </c>
+      <c r="B88" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>44216</v>
+      </c>
+      <c r="B89" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>44217</v>
+      </c>
+      <c r="B90" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>44218</v>
+      </c>
+      <c r="B91" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>44219</v>
+      </c>
+      <c r="B92" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>44220</v>
+      </c>
+      <c r="B93" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>44221</v>
+      </c>
+      <c r="B94" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>44222</v>
+      </c>
+      <c r="B95" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>44223</v>
+      </c>
+      <c r="B96" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>44224</v>
+      </c>
+      <c r="B97" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>44225</v>
+      </c>
+      <c r="B98" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>44226</v>
+      </c>
+      <c r="B99" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>44227</v>
+      </c>
+      <c r="B100" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>44228</v>
+      </c>
+      <c r="B101" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>44229</v>
+      </c>
+      <c r="B102" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>44230</v>
+      </c>
+      <c r="B103" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>44231</v>
+      </c>
+      <c r="B104" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>44232</v>
+      </c>
+      <c r="B105" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>44233</v>
+      </c>
+      <c r="B106" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>44234</v>
+      </c>
+      <c r="B107" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>44235</v>
+      </c>
+      <c r="B108" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>44236</v>
+      </c>
+      <c r="B109" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>44237</v>
+      </c>
+      <c r="B110" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>44238</v>
+      </c>
+      <c r="B111" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>44239</v>
+      </c>
+      <c r="B112" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>44240</v>
+      </c>
+      <c r="B113" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>44241</v>
+      </c>
+      <c r="B114" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>44242</v>
+      </c>
+      <c r="B115" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>44243</v>
+      </c>
+      <c r="B116" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>44244</v>
+      </c>
+      <c r="B117" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>44245</v>
+      </c>
+      <c r="B118" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>44246</v>
+      </c>
+      <c r="B119" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>44247</v>
+      </c>
+      <c r="B120" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>44248</v>
+      </c>
+      <c r="B121" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>44249</v>
+      </c>
+      <c r="B122" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>44250</v>
+      </c>
+      <c r="B123" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>44251</v>
+      </c>
+      <c r="B124" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>44252</v>
+      </c>
+      <c r="B125" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>44253</v>
+      </c>
+      <c r="B126" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>44254</v>
+      </c>
+      <c r="B127" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>44255</v>
+      </c>
+      <c r="B128" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>44256</v>
+      </c>
+      <c r="B129" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>44257</v>
+      </c>
+      <c r="B130" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>44258</v>
+      </c>
+      <c r="B131" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>44259</v>
+      </c>
+      <c r="B132" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>44260</v>
+      </c>
+      <c r="B133" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>44261</v>
+      </c>
+      <c r="B134" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>44262</v>
+      </c>
+      <c r="B135" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>44263</v>
+      </c>
+      <c r="B136" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>44264</v>
+      </c>
+      <c r="B137" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>44265</v>
+      </c>
+      <c r="B138" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>44266</v>
+      </c>
+      <c r="B139" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>44267</v>
+      </c>
+      <c r="B140" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>44268</v>
+      </c>
+      <c r="B141" s="1">
         <v>400</v>
       </c>
     </row>
